--- a/Malos Olores.xlsx
+++ b/Malos Olores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Long Method</t>
   </si>
@@ -184,13 +184,22 @@
   </si>
   <si>
     <t>Grupo de Variables</t>
+  </si>
+  <si>
+    <t>https://elearning.industriallogic.com/gh/submit?Action=PageAction&amp;album=recognizingSmells&amp;path=recognizingSmells/featureEnvy/featureEnvyExample&amp;devLanguage=Java</t>
+  </si>
+  <si>
+    <t>Referencias</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/code-smell-shot-surgery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +228,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -493,10 +510,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -525,8 +543,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -828,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,8 +1191,18 @@
       </c>
       <c r="F38" s="16"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="E41" s="14" t="s">
         <v>50</v>
       </c>
@@ -1180,6 +1211,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
       <c r="E42" s="5" t="s">
         <v>2</v>
       </c>
@@ -1230,6 +1264,9 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A29:B29"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A41" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
